--- a/table.xlsx
+++ b/table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\crypto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A028639-D2A4-4A5B-990E-3D82C3C246CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8B00F7-DD17-4A6A-A0C7-D97887396579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -394,44 +394,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="64.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="68" customWidth="1"/>
+    <col min="2" max="2" width="66" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>

--- a/table.xlsx
+++ b/table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\crypto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8B00F7-DD17-4A6A-A0C7-D97887396579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4284E7-3DF1-452B-9578-9B55AE6EA57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
